--- a/cg/apps/invoice/templates/KI_sample_invoice.xlsx
+++ b/cg/apps/invoice/templates/KI_sample_invoice.xlsx
@@ -105,7 +105,7 @@
     <t>Pris KTH</t>
   </si>
   <si>
-    <t>Pris KTH+KI</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -236,15 +236,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -457,7 +457,7 @@
   <dimension ref="A1:Z1402"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:I23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -473,10 +473,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,10 +509,10 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
@@ -1168,16 +1168,16 @@
       <c r="E23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="16" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="2"/>

--- a/cg/apps/invoice/templates/KI_sample_invoice.xlsx
+++ b/cg/apps/invoice/templates/KI_sample_invoice.xlsx
@@ -60,9 +60,6 @@
     <t>Telefon</t>
   </si>
   <si>
-    <t>08-5248 1545</t>
-  </si>
-  <si>
     <t>Till</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>073-338 63 41</t>
   </si>
 </sst>
 </file>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1402"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -762,7 +762,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -818,7 +818,7 @@
     </row>
     <row r="12" spans="1:26" ht="22.5" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:26" ht="22.5" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
@@ -944,7 +944,7 @@
     </row>
     <row r="16" spans="1:26" ht="22.5" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
@@ -976,7 +976,7 @@
     </row>
     <row r="17" spans="1:26" ht="22.5" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
@@ -1036,7 +1036,7 @@
     </row>
     <row r="19" spans="1:26" ht="22.5" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="20" spans="1:26" ht="22.5" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
@@ -1154,31 +1154,31 @@
     </row>
     <row r="23" spans="1:26" ht="22.5" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="G23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="H23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="I23" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>

--- a/cg/apps/invoice/templates/KI_sample_invoice.xlsx
+++ b/cg/apps/invoice/templates/KI_sample_invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/cg/apps/invoice/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Documents/clinicalGenomics/cg/cg/apps/invoice/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFA51F-A684-E44E-8DF1-03A8E4D35619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50D334E-FA9F-7948-AB5F-229B438DB16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,13 +105,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Anna Gellerbring</t>
+    <t>Anna Zetterlund</t>
   </si>
   <si>
-    <t>08-524 860 53</t>
+    <t>anna.zetterlund@scilifelab.se</t>
   </si>
   <si>
-    <t>anna.gellerbring@scilifelab.se</t>
+    <t>(+46) 701523463</t>
   </si>
 </sst>
 </file>
@@ -170,7 +170,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -218,10 +218,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -254,11 +253,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,7 +473,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C8" sqref="C8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -748,7 +746,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -780,7 +778,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -28577,9 +28575,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
